--- a/Excel e VBA/Excel II/Conteúdo das Aulas/Aula2_Filtro_Avancado.xlsx
+++ b/Excel e VBA/Excel II/Conteúdo das Aulas/Aula2_Filtro_Avancado.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" checkCompatibility="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Documents\GitHub\Alura\Excel e VBA\Excel II\Conteúdo das Aulas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="750" windowWidth="22515" windowHeight="9405" tabRatio="737" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205" tabRatio="737" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Aplicação Prática 1" sheetId="13" r:id="rId1"/>
@@ -13,23 +18,25 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Aplicação Prática 1'!$A$5:$C$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Aplicação Prática 2'!$A$5:$G$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Aplicação Prática 3'!$A$5:$G$55</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">'Aplicação Prática 1'!$E$15:$G$15</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">'Aplicação Prática 2'!$I$17:$O$17</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">'Aplicação Prática 3'!$I$15:$O$15</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">'Aplicação Prática 1'!$E$10:$F$12</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">'Aplicação Prática 2'!$I$12:$K$14</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">'Aplicação Prática 3'!$I$10:$L$12</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">'Aplicação Prática 1'!$E$15:$G$15</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="2">'Aplicação Prática 3'!$I$14:$O$14</definedName>
     <definedName name="plano" localSheetId="0">'Aplicação Prática 1'!$D$9:$D$12</definedName>
     <definedName name="plano" localSheetId="1">'Aplicação Prática 2'!$G$9:$H$12</definedName>
     <definedName name="plano" localSheetId="2">'Aplicação Prática 3'!$G$9:$H$12</definedName>
     <definedName name="plano">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="76">
   <si>
     <t>Segurado</t>
   </si>
@@ -245,12 +252,27 @@
   </si>
   <si>
     <t>AM</t>
+  </si>
+  <si>
+    <t>Tabela de Critérios</t>
+  </si>
+  <si>
+    <t>Saída</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>&gt;=100</t>
+  </si>
+  <si>
+    <t>&lt;=200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -330,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -349,16 +371,28 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -806,7 +840,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -848,7 +882,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -883,7 +917,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1094,14 +1128,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:G55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="10" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.85546875" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
@@ -1125,7 +1159,7 @@
       <c r="A6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1137,7 +1171,7 @@
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1148,7 +1182,7 @@
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1159,18 +1193,21 @@
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1187,7 +1224,7 @@
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1204,7 +1241,7 @@
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1218,7 +1255,7 @@
       <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1229,18 +1266,21 @@
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1260,7 +1300,7 @@
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1280,7 +1320,7 @@
       <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1300,7 +1340,7 @@
       <c r="A18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1320,7 +1360,7 @@
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1340,7 +1380,7 @@
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1360,7 +1400,7 @@
       <c r="A21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1380,7 +1420,7 @@
       <c r="A22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1400,7 +1440,7 @@
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1420,7 +1460,7 @@
       <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="5" t="s">
         <v>5</v>
       </c>
@@ -1438,7 +1478,7 @@
       <c r="A25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
@@ -1456,7 +1496,7 @@
       <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -1476,7 +1516,7 @@
       <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="5" t="s">
         <v>18</v>
       </c>
@@ -1494,7 +1534,7 @@
       <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -1514,7 +1554,7 @@
       <c r="A29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1525,7 +1565,7 @@
       <c r="A30" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="5" t="s">
         <v>45</v>
       </c>
@@ -1534,7 +1574,7 @@
       <c r="A31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="5" t="s">
         <v>18</v>
       </c>
@@ -1543,7 +1583,7 @@
       <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="5" t="s">
         <v>5</v>
       </c>
@@ -1552,7 +1592,7 @@
       <c r="A33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="5" t="s">
         <v>32</v>
       </c>
@@ -1561,7 +1601,7 @@
       <c r="A34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="5" t="s">
         <v>45</v>
       </c>
@@ -1570,7 +1610,7 @@
       <c r="A35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -1581,7 +1621,7 @@
       <c r="A36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -1592,7 +1632,7 @@
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -1603,7 +1643,7 @@
       <c r="A38" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="4"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="5" t="s">
         <v>5</v>
       </c>
@@ -1612,7 +1652,7 @@
       <c r="A39" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -1623,7 +1663,7 @@
       <c r="A40" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -1634,7 +1674,7 @@
       <c r="A41" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="4"/>
+      <c r="B41" s="7"/>
       <c r="C41" s="5" t="s">
         <v>45</v>
       </c>
@@ -1643,7 +1683,7 @@
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -1654,7 +1694,7 @@
       <c r="A43" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="4"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="5" t="s">
         <v>18</v>
       </c>
@@ -1663,7 +1703,7 @@
       <c r="A44" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="4"/>
+      <c r="B44" s="7"/>
       <c r="C44" s="5" t="s">
         <v>5</v>
       </c>
@@ -1672,7 +1712,7 @@
       <c r="A45" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="4"/>
+      <c r="B45" s="7"/>
       <c r="C45" s="5" t="s">
         <v>45</v>
       </c>
@@ -1681,7 +1721,7 @@
       <c r="A46" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="4"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="5" t="s">
         <v>32</v>
       </c>
@@ -1690,7 +1730,7 @@
       <c r="A47" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="4"/>
+      <c r="B47" s="7"/>
       <c r="C47" s="5" t="s">
         <v>18</v>
       </c>
@@ -1699,7 +1739,7 @@
       <c r="A48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="4"/>
+      <c r="B48" s="7"/>
       <c r="C48" s="5" t="s">
         <v>5</v>
       </c>
@@ -1708,7 +1748,7 @@
       <c r="A49" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="4"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="5" t="s">
         <v>32</v>
       </c>
@@ -1717,7 +1757,7 @@
       <c r="A50" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="4"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="5" t="s">
         <v>45</v>
       </c>
@@ -1726,7 +1766,7 @@
       <c r="A51" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="4"/>
+      <c r="B51" s="7"/>
       <c r="C51" s="5" t="s">
         <v>18</v>
       </c>
@@ -1735,7 +1775,7 @@
       <c r="A52" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="4"/>
+      <c r="B52" s="7"/>
       <c r="C52" s="5" t="s">
         <v>5</v>
       </c>
@@ -1744,7 +1784,7 @@
       <c r="A53" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="4"/>
+      <c r="B53" s="7"/>
       <c r="C53" s="5" t="s">
         <v>32</v>
       </c>
@@ -1753,7 +1793,7 @@
       <c r="A54" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="4"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="5" t="s">
         <v>45</v>
       </c>
@@ -1762,7 +1802,7 @@
       <c r="A55" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B55" s="4"/>
+      <c r="B55" s="7"/>
       <c r="C55" s="5" t="s">
         <v>18</v>
       </c>
@@ -1778,10 +1818,1540 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A5:I55"/>
+  <dimension ref="A5:O55"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N21" sqref="N18:N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="31.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>189.5</v>
+      </c>
+      <c r="E6" s="6">
+        <v>50</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <f>D6+(E6*F6)</f>
+        <v>189.5</v>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6">
+        <v>189.5</v>
+      </c>
+      <c r="E7" s="6">
+        <v>50</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" ref="G7:G55" si="0">D7+(E7*F7)</f>
+        <v>289.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6">
+        <v>189.5</v>
+      </c>
+      <c r="E8" s="6">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="0"/>
+        <v>239.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6">
+        <v>189.5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>189.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>189.5</v>
+      </c>
+      <c r="E10" s="6">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7">
+        <v>3</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="0"/>
+        <v>339.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>189.5</v>
+      </c>
+      <c r="E11" s="6">
+        <v>50</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="0"/>
+        <v>239.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6">
+        <v>189.5</v>
+      </c>
+      <c r="E12" s="6">
+        <v>50</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
+        <v>189.5</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6">
+        <v>189.5</v>
+      </c>
+      <c r="E13" s="6">
+        <v>50</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="0"/>
+        <v>239.5</v>
+      </c>
+      <c r="I13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="6">
+        <v>189.5</v>
+      </c>
+      <c r="E14" s="6">
+        <v>50</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="0"/>
+        <v>239.5</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6">
+        <v>189.5</v>
+      </c>
+      <c r="E15" s="6">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="0"/>
+        <v>239.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6">
+        <v>189.5</v>
+      </c>
+      <c r="E16" s="6">
+        <v>50</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="0"/>
+        <v>289.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="60" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="6">
+        <v>189.5</v>
+      </c>
+      <c r="E17" s="6">
+        <v>50</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="0"/>
+        <v>239.5</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="6">
+        <v>85</v>
+      </c>
+      <c r="E18" s="6">
+        <v>50</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="6">
+        <v>189.5</v>
+      </c>
+      <c r="M18" s="6">
+        <v>50</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6">
+        <v>239.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="6">
+        <v>85</v>
+      </c>
+      <c r="E19" s="6">
+        <v>50</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="6">
+        <v>189.5</v>
+      </c>
+      <c r="M19" s="6">
+        <v>50</v>
+      </c>
+      <c r="N19" s="7">
+        <v>3</v>
+      </c>
+      <c r="O19" s="6">
+        <v>339.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="6">
+        <v>85</v>
+      </c>
+      <c r="E20" s="6">
+        <v>50</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="6">
+        <v>189.5</v>
+      </c>
+      <c r="M20" s="6">
+        <v>50</v>
+      </c>
+      <c r="N20" s="7">
+        <v>2</v>
+      </c>
+      <c r="O20" s="6">
+        <v>289.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="6">
+        <v>85</v>
+      </c>
+      <c r="E21" s="6">
+        <v>50</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="6">
+        <v>189.5</v>
+      </c>
+      <c r="M21" s="6">
+        <v>50</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1</v>
+      </c>
+      <c r="O21" s="6">
+        <v>239.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="6">
+        <v>85</v>
+      </c>
+      <c r="E22" s="6">
+        <v>50</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="6">
+        <v>92</v>
+      </c>
+      <c r="M22" s="6">
+        <v>50</v>
+      </c>
+      <c r="N22" s="7">
+        <v>3</v>
+      </c>
+      <c r="O22" s="6">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="6">
+        <v>85</v>
+      </c>
+      <c r="E23" s="6">
+        <v>50</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="6">
+        <v>92</v>
+      </c>
+      <c r="M23" s="6">
+        <v>50</v>
+      </c>
+      <c r="N23" s="7">
+        <v>3</v>
+      </c>
+      <c r="O23" s="6">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="6">
+        <v>85</v>
+      </c>
+      <c r="E24" s="6">
+        <v>50</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="6">
+        <v>92</v>
+      </c>
+      <c r="M24" s="6">
+        <v>50</v>
+      </c>
+      <c r="N24" s="7">
+        <v>3</v>
+      </c>
+      <c r="O24" s="6">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="6">
+        <v>85</v>
+      </c>
+      <c r="E25" s="6">
+        <v>50</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" s="6">
+        <v>92</v>
+      </c>
+      <c r="M25" s="6">
+        <v>50</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3</v>
+      </c>
+      <c r="O25" s="6">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="6">
+        <v>85</v>
+      </c>
+      <c r="E26" s="6">
+        <v>50</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="6">
+        <v>92</v>
+      </c>
+      <c r="M26" s="6">
+        <v>50</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4</v>
+      </c>
+      <c r="O26" s="6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="6">
+        <v>85</v>
+      </c>
+      <c r="E27" s="6">
+        <v>50</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" s="6">
+        <v>92</v>
+      </c>
+      <c r="M27" s="6">
+        <v>50</v>
+      </c>
+      <c r="N27" s="7">
+        <v>4</v>
+      </c>
+      <c r="O27" s="6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="6">
+        <v>85</v>
+      </c>
+      <c r="E28" s="6">
+        <v>50</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28" s="6">
+        <v>92</v>
+      </c>
+      <c r="M28" s="6">
+        <v>50</v>
+      </c>
+      <c r="N28" s="7">
+        <v>5</v>
+      </c>
+      <c r="O28" s="6">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="6">
+        <v>85</v>
+      </c>
+      <c r="E29" s="6">
+        <v>50</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="6">
+        <v>85</v>
+      </c>
+      <c r="E30" s="6">
+        <v>50</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="6">
+        <v>290</v>
+      </c>
+      <c r="E31" s="6">
+        <v>50</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="6">
+        <v>290</v>
+      </c>
+      <c r="E32" s="6">
+        <v>50</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="6">
+        <v>290</v>
+      </c>
+      <c r="E33" s="6">
+        <v>50</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="6">
+        <v>290</v>
+      </c>
+      <c r="E34" s="6">
+        <v>50</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="6">
+        <v>290</v>
+      </c>
+      <c r="E35" s="6">
+        <v>50</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="6">
+        <v>290</v>
+      </c>
+      <c r="E36" s="6">
+        <v>50</v>
+      </c>
+      <c r="F36" s="7">
+        <v>2</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="6">
+        <v>290</v>
+      </c>
+      <c r="E37" s="6">
+        <v>50</v>
+      </c>
+      <c r="F37" s="7">
+        <v>2</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="6">
+        <v>290</v>
+      </c>
+      <c r="E38" s="6">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7">
+        <v>2</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="6">
+        <v>290</v>
+      </c>
+      <c r="E39" s="6">
+        <v>50</v>
+      </c>
+      <c r="F39" s="7">
+        <v>2</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="6">
+        <v>290</v>
+      </c>
+      <c r="E40" s="6">
+        <v>50</v>
+      </c>
+      <c r="F40" s="7">
+        <v>2</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="6">
+        <v>290</v>
+      </c>
+      <c r="E41" s="6">
+        <v>50</v>
+      </c>
+      <c r="F41" s="7">
+        <v>2</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="6">
+        <v>290</v>
+      </c>
+      <c r="E42" s="6">
+        <v>50</v>
+      </c>
+      <c r="F42" s="7">
+        <v>2</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="6">
+        <v>92</v>
+      </c>
+      <c r="E43" s="6">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7">
+        <v>2</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="6">
+        <v>92</v>
+      </c>
+      <c r="E44" s="6">
+        <v>50</v>
+      </c>
+      <c r="F44" s="7">
+        <v>2</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="6">
+        <v>92</v>
+      </c>
+      <c r="E45" s="6">
+        <v>50</v>
+      </c>
+      <c r="F45" s="7">
+        <v>2</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="6">
+        <v>92</v>
+      </c>
+      <c r="E46" s="6">
+        <v>50</v>
+      </c>
+      <c r="F46" s="7">
+        <v>2</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="6">
+        <v>92</v>
+      </c>
+      <c r="E47" s="6">
+        <v>50</v>
+      </c>
+      <c r="F47" s="7">
+        <v>2</v>
+      </c>
+      <c r="G47" s="6">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="6">
+        <v>92</v>
+      </c>
+      <c r="E48" s="6">
+        <v>50</v>
+      </c>
+      <c r="F48" s="7">
+        <v>2</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="6">
+        <v>92</v>
+      </c>
+      <c r="E49" s="6">
+        <v>50</v>
+      </c>
+      <c r="F49" s="7">
+        <v>3</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="6">
+        <v>92</v>
+      </c>
+      <c r="E50" s="6">
+        <v>50</v>
+      </c>
+      <c r="F50" s="7">
+        <v>3</v>
+      </c>
+      <c r="G50" s="6">
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="6">
+        <v>92</v>
+      </c>
+      <c r="E51" s="6">
+        <v>50</v>
+      </c>
+      <c r="F51" s="7">
+        <v>3</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="6">
+        <v>92</v>
+      </c>
+      <c r="E52" s="6">
+        <v>50</v>
+      </c>
+      <c r="F52" s="7">
+        <v>3</v>
+      </c>
+      <c r="G52" s="6">
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="6">
+        <v>92</v>
+      </c>
+      <c r="E53" s="6">
+        <v>50</v>
+      </c>
+      <c r="F53" s="7">
+        <v>4</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="0"/>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="6">
+        <v>92</v>
+      </c>
+      <c r="E54" s="6">
+        <v>50</v>
+      </c>
+      <c r="F54" s="7">
+        <v>4</v>
+      </c>
+      <c r="G54" s="6">
+        <f t="shared" si="0"/>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="6">
+        <v>92</v>
+      </c>
+      <c r="E55" s="6">
+        <v>50</v>
+      </c>
+      <c r="F55" s="7">
+        <v>5</v>
+      </c>
+      <c r="G55" s="6">
+        <f t="shared" si="0"/>
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:O55"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1793,12 +3363,13 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="12" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1823,7 +3394,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1848,7 +3419,7 @@
       </c>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1872,7 +3443,7 @@
         <v>289.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1896,7 +3467,7 @@
         <v>239.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1920,7 +3491,7 @@
         <v>189.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1943,8 +3514,20 @@
         <f t="shared" si="0"/>
         <v>339.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1967,8 +3550,14 @@
         <f t="shared" si="0"/>
         <v>239.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1991,8 +3580,14 @@
         <f t="shared" si="0"/>
         <v>189.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -2016,7 +3611,7 @@
         <v>239.5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -2040,7 +3635,7 @@
         <v>239.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="60" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -2063,8 +3658,29 @@
         <f t="shared" si="0"/>
         <v>239.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -2087,8 +3703,29 @@
         <f t="shared" si="0"/>
         <v>289.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="6">
+        <v>189.5</v>
+      </c>
+      <c r="M16" s="6">
+        <v>50</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <v>189.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -2111,8 +3748,29 @@
         <f t="shared" si="0"/>
         <v>239.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="6">
+        <v>189.5</v>
+      </c>
+      <c r="M17" s="6">
+        <v>50</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
+        <v>189.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -2135,8 +3793,29 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="6">
+        <v>189.5</v>
+      </c>
+      <c r="M18" s="6">
+        <v>50</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
+        <v>189.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -2159,8 +3838,29 @@
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="6">
+        <v>85</v>
+      </c>
+      <c r="M19" s="6">
+        <v>50</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1</v>
+      </c>
+      <c r="O19" s="6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
@@ -2183,8 +3883,29 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="6">
+        <v>85</v>
+      </c>
+      <c r="M20" s="6">
+        <v>50</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
@@ -2207,8 +3928,29 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="6">
+        <v>85</v>
+      </c>
+      <c r="M21" s="6">
+        <v>50</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1</v>
+      </c>
+      <c r="O21" s="6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
@@ -2231,8 +3973,29 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="6">
+        <v>85</v>
+      </c>
+      <c r="M22" s="6">
+        <v>50</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1</v>
+      </c>
+      <c r="O22" s="6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
@@ -2255,8 +4018,29 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="6">
+        <v>85</v>
+      </c>
+      <c r="M23" s="6">
+        <v>50</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1</v>
+      </c>
+      <c r="O23" s="6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
@@ -2279,8 +4063,29 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="6">
+        <v>85</v>
+      </c>
+      <c r="M24" s="6">
+        <v>50</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1</v>
+      </c>
+      <c r="O24" s="6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
@@ -2303,8 +4108,29 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="6">
+        <v>290</v>
+      </c>
+      <c r="M25" s="6">
+        <v>50</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1</v>
+      </c>
+      <c r="O25" s="6">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
@@ -2327,8 +4153,29 @@
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="6">
+        <v>290</v>
+      </c>
+      <c r="M26" s="6">
+        <v>50</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1</v>
+      </c>
+      <c r="O26" s="6">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
@@ -2351,8 +4198,29 @@
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="6">
+        <v>290</v>
+      </c>
+      <c r="M27" s="6">
+        <v>50</v>
+      </c>
+      <c r="N27" s="7">
+        <v>2</v>
+      </c>
+      <c r="O27" s="6">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
@@ -2375,8 +4243,29 @@
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28" s="6">
+        <v>92</v>
+      </c>
+      <c r="M28" s="6">
+        <v>50</v>
+      </c>
+      <c r="N28" s="7">
+        <v>2</v>
+      </c>
+      <c r="O28" s="6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
@@ -2399,8 +4288,29 @@
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="6">
+        <v>92</v>
+      </c>
+      <c r="M29" s="6">
+        <v>50</v>
+      </c>
+      <c r="N29" s="7">
+        <v>2</v>
+      </c>
+      <c r="O29" s="6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
@@ -2423,8 +4333,29 @@
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L30" s="6">
+        <v>92</v>
+      </c>
+      <c r="M30" s="6">
+        <v>50</v>
+      </c>
+      <c r="N30" s="7">
+        <v>2</v>
+      </c>
+      <c r="O30" s="6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
@@ -2447,8 +4378,29 @@
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="6">
+        <v>92</v>
+      </c>
+      <c r="M31" s="6">
+        <v>50</v>
+      </c>
+      <c r="N31" s="7">
+        <v>2</v>
+      </c>
+      <c r="O31" s="6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>33</v>
       </c>
@@ -2471,8 +4423,29 @@
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="6">
+        <v>92</v>
+      </c>
+      <c r="M32" s="6">
+        <v>50</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2</v>
+      </c>
+      <c r="O32" s="6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
@@ -2495,8 +4468,29 @@
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L33" s="6">
+        <v>92</v>
+      </c>
+      <c r="M33" s="6">
+        <v>50</v>
+      </c>
+      <c r="N33" s="7">
+        <v>2</v>
+      </c>
+      <c r="O33" s="6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
@@ -2520,7 +4514,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
@@ -2544,7 +4538,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
@@ -2568,7 +4562,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
@@ -2592,7 +4586,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -2616,7 +4610,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
@@ -2640,7 +4634,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>41</v>
       </c>
@@ -2664,7 +4658,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>42</v>
       </c>
@@ -2688,7 +4682,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
@@ -2712,7 +4706,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>44</v>
       </c>
@@ -2736,7 +4730,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>46</v>
       </c>
@@ -2760,7 +4754,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>47</v>
       </c>
@@ -2784,7 +4778,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>48</v>
       </c>
@@ -2808,7 +4802,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>49</v>
       </c>
@@ -2832,1273 +4826,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="6">
-        <v>92</v>
-      </c>
-      <c r="E48" s="6">
-        <v>50</v>
-      </c>
-      <c r="F48" s="7">
-        <v>2</v>
-      </c>
-      <c r="G48" s="6">
-        <f t="shared" si="0"/>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" s="6">
-        <v>92</v>
-      </c>
-      <c r="E49" s="6">
-        <v>50</v>
-      </c>
-      <c r="F49" s="7">
-        <v>3</v>
-      </c>
-      <c r="G49" s="6">
-        <f t="shared" si="0"/>
-        <v>242</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="6">
-        <v>92</v>
-      </c>
-      <c r="E50" s="6">
-        <v>50</v>
-      </c>
-      <c r="F50" s="7">
-        <v>3</v>
-      </c>
-      <c r="G50" s="6">
-        <f t="shared" si="0"/>
-        <v>242</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="6">
-        <v>92</v>
-      </c>
-      <c r="E51" s="6">
-        <v>50</v>
-      </c>
-      <c r="F51" s="7">
-        <v>3</v>
-      </c>
-      <c r="G51" s="6">
-        <f t="shared" si="0"/>
-        <v>242</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="6">
-        <v>92</v>
-      </c>
-      <c r="E52" s="6">
-        <v>50</v>
-      </c>
-      <c r="F52" s="7">
-        <v>3</v>
-      </c>
-      <c r="G52" s="6">
-        <f t="shared" si="0"/>
-        <v>242</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="6">
-        <v>92</v>
-      </c>
-      <c r="E53" s="6">
-        <v>50</v>
-      </c>
-      <c r="F53" s="7">
-        <v>4</v>
-      </c>
-      <c r="G53" s="6">
-        <f t="shared" si="0"/>
-        <v>292</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="6">
-        <v>92</v>
-      </c>
-      <c r="E54" s="6">
-        <v>50</v>
-      </c>
-      <c r="F54" s="7">
-        <v>4</v>
-      </c>
-      <c r="G54" s="6">
-        <f t="shared" si="0"/>
-        <v>292</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" s="6">
-        <v>92</v>
-      </c>
-      <c r="E55" s="6">
-        <v>50</v>
-      </c>
-      <c r="F55" s="7">
-        <v>5</v>
-      </c>
-      <c r="G55" s="6">
-        <f t="shared" si="0"/>
-        <v>342</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:L55"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="12" width="16.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6">
-        <v>189.5</v>
-      </c>
-      <c r="E6" s="6">
-        <v>50</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <f>D6+(E6*F6)</f>
-        <v>189.5</v>
-      </c>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6">
-        <v>189.5</v>
-      </c>
-      <c r="E7" s="6">
-        <v>50</v>
-      </c>
-      <c r="F7" s="7">
-        <v>2</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" ref="G7:G55" si="0">D7+(E7*F7)</f>
-        <v>289.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6">
-        <v>189.5</v>
-      </c>
-      <c r="E8" s="6">
-        <v>50</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="0"/>
-        <v>239.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6">
-        <v>189.5</v>
-      </c>
-      <c r="E9" s="6">
-        <v>50</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="0"/>
-        <v>189.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6">
-        <v>189.5</v>
-      </c>
-      <c r="E10" s="6">
-        <v>50</v>
-      </c>
-      <c r="F10" s="7">
-        <v>3</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="0"/>
-        <v>339.5</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="6">
-        <v>189.5</v>
-      </c>
-      <c r="E11" s="6">
-        <v>50</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="0"/>
-        <v>239.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6">
-        <v>189.5</v>
-      </c>
-      <c r="E12" s="6">
-        <v>50</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="0"/>
-        <v>189.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6">
-        <v>189.5</v>
-      </c>
-      <c r="E13" s="6">
-        <v>50</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" si="0"/>
-        <v>239.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="6">
-        <v>189.5</v>
-      </c>
-      <c r="E14" s="6">
-        <v>50</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="0"/>
-        <v>239.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="6">
-        <v>189.5</v>
-      </c>
-      <c r="E15" s="6">
-        <v>50</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6">
-        <f t="shared" si="0"/>
-        <v>239.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="6">
-        <v>189.5</v>
-      </c>
-      <c r="E16" s="6">
-        <v>50</v>
-      </c>
-      <c r="F16" s="7">
-        <v>2</v>
-      </c>
-      <c r="G16" s="6">
-        <f t="shared" si="0"/>
-        <v>289.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="6">
-        <v>189.5</v>
-      </c>
-      <c r="E17" s="6">
-        <v>50</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1</v>
-      </c>
-      <c r="G17" s="6">
-        <f t="shared" si="0"/>
-        <v>239.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="6">
-        <v>85</v>
-      </c>
-      <c r="E18" s="6">
-        <v>50</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="6">
-        <v>85</v>
-      </c>
-      <c r="E19" s="6">
-        <v>50</v>
-      </c>
-      <c r="F19" s="7">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="6">
-        <v>85</v>
-      </c>
-      <c r="E20" s="6">
-        <v>50</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="6">
-        <v>85</v>
-      </c>
-      <c r="E21" s="6">
-        <v>50</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="6">
-        <v>85</v>
-      </c>
-      <c r="E22" s="6">
-        <v>50</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="6">
-        <v>85</v>
-      </c>
-      <c r="E23" s="6">
-        <v>50</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="6">
-        <v>85</v>
-      </c>
-      <c r="E24" s="6">
-        <v>50</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="6">
-        <v>85</v>
-      </c>
-      <c r="E25" s="6">
-        <v>50</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="6">
-        <v>85</v>
-      </c>
-      <c r="E26" s="6">
-        <v>50</v>
-      </c>
-      <c r="F26" s="7">
-        <v>1</v>
-      </c>
-      <c r="G26" s="6">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="6">
-        <v>85</v>
-      </c>
-      <c r="E27" s="6">
-        <v>50</v>
-      </c>
-      <c r="F27" s="7">
-        <v>1</v>
-      </c>
-      <c r="G27" s="6">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="6">
-        <v>85</v>
-      </c>
-      <c r="E28" s="6">
-        <v>50</v>
-      </c>
-      <c r="F28" s="7">
-        <v>1</v>
-      </c>
-      <c r="G28" s="6">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="6">
-        <v>85</v>
-      </c>
-      <c r="E29" s="6">
-        <v>50</v>
-      </c>
-      <c r="F29" s="7">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="6">
-        <v>85</v>
-      </c>
-      <c r="E30" s="6">
-        <v>50</v>
-      </c>
-      <c r="F30" s="7">
-        <v>1</v>
-      </c>
-      <c r="G30" s="6">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="6">
-        <v>290</v>
-      </c>
-      <c r="E31" s="6">
-        <v>50</v>
-      </c>
-      <c r="F31" s="7">
-        <v>1</v>
-      </c>
-      <c r="G31" s="6">
-        <f t="shared" si="0"/>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="6">
-        <v>290</v>
-      </c>
-      <c r="E32" s="6">
-        <v>50</v>
-      </c>
-      <c r="F32" s="7">
-        <v>1</v>
-      </c>
-      <c r="G32" s="6">
-        <f t="shared" si="0"/>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="6">
-        <v>290</v>
-      </c>
-      <c r="E33" s="6">
-        <v>50</v>
-      </c>
-      <c r="F33" s="7">
-        <v>1</v>
-      </c>
-      <c r="G33" s="6">
-        <f t="shared" si="0"/>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="6">
-        <v>290</v>
-      </c>
-      <c r="E34" s="6">
-        <v>50</v>
-      </c>
-      <c r="F34" s="7">
-        <v>1</v>
-      </c>
-      <c r="G34" s="6">
-        <f t="shared" si="0"/>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="6">
-        <v>290</v>
-      </c>
-      <c r="E35" s="6">
-        <v>50</v>
-      </c>
-      <c r="F35" s="7">
-        <v>1</v>
-      </c>
-      <c r="G35" s="6">
-        <f t="shared" si="0"/>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="6">
-        <v>290</v>
-      </c>
-      <c r="E36" s="6">
-        <v>50</v>
-      </c>
-      <c r="F36" s="7">
-        <v>2</v>
-      </c>
-      <c r="G36" s="6">
-        <f t="shared" si="0"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="6">
-        <v>290</v>
-      </c>
-      <c r="E37" s="6">
-        <v>50</v>
-      </c>
-      <c r="F37" s="7">
-        <v>2</v>
-      </c>
-      <c r="G37" s="6">
-        <f t="shared" si="0"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="6">
-        <v>290</v>
-      </c>
-      <c r="E38" s="6">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7">
-        <v>2</v>
-      </c>
-      <c r="G38" s="6">
-        <f t="shared" si="0"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="6">
-        <v>290</v>
-      </c>
-      <c r="E39" s="6">
-        <v>50</v>
-      </c>
-      <c r="F39" s="7">
-        <v>2</v>
-      </c>
-      <c r="G39" s="6">
-        <f t="shared" si="0"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="6">
-        <v>290</v>
-      </c>
-      <c r="E40" s="6">
-        <v>50</v>
-      </c>
-      <c r="F40" s="7">
-        <v>2</v>
-      </c>
-      <c r="G40" s="6">
-        <f t="shared" si="0"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="6">
-        <v>290</v>
-      </c>
-      <c r="E41" s="6">
-        <v>50</v>
-      </c>
-      <c r="F41" s="7">
-        <v>2</v>
-      </c>
-      <c r="G41" s="6">
-        <f t="shared" si="0"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="6">
-        <v>290</v>
-      </c>
-      <c r="E42" s="6">
-        <v>50</v>
-      </c>
-      <c r="F42" s="7">
-        <v>2</v>
-      </c>
-      <c r="G42" s="6">
-        <f t="shared" si="0"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="6">
-        <v>92</v>
-      </c>
-      <c r="E43" s="6">
-        <v>50</v>
-      </c>
-      <c r="F43" s="7">
-        <v>2</v>
-      </c>
-      <c r="G43" s="6">
-        <f t="shared" si="0"/>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" s="6">
-        <v>92</v>
-      </c>
-      <c r="E44" s="6">
-        <v>50</v>
-      </c>
-      <c r="F44" s="7">
-        <v>2</v>
-      </c>
-      <c r="G44" s="6">
-        <f t="shared" si="0"/>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="6">
-        <v>92</v>
-      </c>
-      <c r="E45" s="6">
-        <v>50</v>
-      </c>
-      <c r="F45" s="7">
-        <v>2</v>
-      </c>
-      <c r="G45" s="6">
-        <f t="shared" si="0"/>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="6">
-        <v>92</v>
-      </c>
-      <c r="E46" s="6">
-        <v>50</v>
-      </c>
-      <c r="F46" s="7">
-        <v>2</v>
-      </c>
-      <c r="G46" s="6">
-        <f t="shared" si="0"/>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="6">
-        <v>92</v>
-      </c>
-      <c r="E47" s="6">
-        <v>50</v>
-      </c>
-      <c r="F47" s="7">
-        <v>2</v>
-      </c>
-      <c r="G47" s="6">
-        <f t="shared" si="0"/>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>50</v>
       </c>
